--- a/ExcelTemplate/SellTicketApp_ExcelTemplate.xlsx
+++ b/ExcelTemplate/SellTicketApp_ExcelTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy\Desktop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy\Desktop\Clone lại\BanVeChuyenBay\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6784897F-CF93-4075-AE14-ECB64656C552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47DC7C3-879B-44ED-9763-D58E4E53E06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="3160" windowWidth="14400" windowHeight="8710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Ngày bay</t>
   </si>
@@ -66,9 +66,6 @@
     <t>_15:20</t>
   </si>
   <si>
-    <t>_15:21</t>
-  </si>
-  <si>
     <t>_[Ngày]/[Tháng]/[Năm]</t>
   </si>
   <si>
@@ -102,7 +99,16 @@
     <t>_Hạng nhất_75-Thương gia_15</t>
   </si>
   <si>
-    <t>_Hạng nhất_75-Thương gia_16</t>
+    <t>_DIN_15:Dui-THD_20:Cười</t>
+  </si>
+  <si>
+    <t>_[Mã SBTG1]_[Thời gian dừng SBTG1]:[Ghi chú SBTG1]-[Mã SBTG2]_[Thời gian dừng SBTG2]:[Ghi chú SBTG2]-…</t>
+  </si>
+  <si>
+    <t>Thời gian bay (phút)</t>
+  </si>
+  <si>
+    <t>Giá vé (vnd)</t>
   </si>
   <si>
     <r>
@@ -117,26 +123,8 @@
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
-      <t>(Ghi chú: Chỉ nhập dữ liệu từ dòng 11 trở đi.)</t>
+      <t>(Ghi chú: Chỉ nhập dữ liệu từ dòng 10 trở đi.)</t>
     </r>
-  </si>
-  <si>
-    <t>_DIN_15:Dui-THD_20:Cười</t>
-  </si>
-  <si>
-    <t>_[Mã SBTG1]_[Thời gian dừng SBTG1]:[Ghi chú SBTG1]-[Mã SBTG2]_[Thời gian dừng SBTG2]:[Ghi chú SBTG2]-…</t>
-  </si>
-  <si>
-    <t>Thời gian bay (phút)</t>
-  </si>
-  <si>
-    <t>Giá vé (vnd)</t>
-  </si>
-  <si>
-    <t>_151</t>
-  </si>
-  <si>
-    <t>_11/6/2022</t>
   </si>
 </sst>
 </file>
@@ -782,7 +770,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -835,10 +823,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
@@ -849,28 +837,28 @@
     </row>
     <row r="4" spans="1:8" ht="21.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -899,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>2</v>
@@ -913,10 +901,10 @@
     </row>
     <row r="7" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>11</v>
@@ -925,21 +913,21 @@
         <v>12</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A8" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -963,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>2</v>
@@ -976,56 +964,24 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>

--- a/ExcelTemplate/SellTicketApp_ExcelTemplate.xlsx
+++ b/ExcelTemplate/SellTicketApp_ExcelTemplate.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy\Desktop\Clone lại\BanVeChuyenBay\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47DC7C3-879B-44ED-9763-D58E4E53E06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2F2347-E2C5-483F-B6B5-FFF819B79438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qPEuou7NqJ5Cs4CvsT5caYsTqk/VOrgrRXIVpc7bbP0PKNmbOquV4ALlkK9E33qSBbKdCII3BWxZsaYIppvuDQ==" workbookSaltValue="UITg+foSzclGrDrbdCSK5Q==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nhận lịch" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -123,7 +124,7 @@
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
-      <t>(Ghi chú: Chỉ nhập dữ liệu từ dòng 10 trở đi.)</t>
+      <t>(Ghi chú: Chỉ nhập dữ liệu từ dòng 10 trở đi và từ cột H trở về trước.)</t>
     </r>
   </si>
 </sst>
@@ -769,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1014,6 +1015,10 @@
       <c r="H14" s="13"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="z9jL/o5som0M8xRPxWT0n1Ez1M284ddQc4gX2VQ/lWLnBnvAvoLiB+cxqnznh8aGh85WoIenPiwHncAECdRRMQ==" saltValue="eN+Vat3tCfCzdFTrjYiaBw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="A10:H200" name="Range1"/>
+  </protectedRanges>
   <mergeCells count="4">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:H5"/>
